--- a/src/test/resources/testdata/LoginPage_003_Logout.xlsx
+++ b/src/test/resources/testdata/LoginPage_003_Logout.xlsx
@@ -18,10 +18,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>expecttext</t>
+    <t>您已成功退出网易邮箱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您已成功退出网易邮箱。</t>
+    <t>expect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,9 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -404,12 +403,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/LoginPage_003_Logout.xlsx
+++ b/src/test/resources/testdata/LoginPage_003_Logout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>您已成功退出网易邮箱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,6 +24,18 @@
   <si>
     <t>expect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>helloxwr</t>
+  </si>
+  <si>
+    <t>Gmcc_1234</t>
   </si>
 </sst>
 </file>
@@ -392,22 +404,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/testdata/LoginPage_003_Logout.xlsx
+++ b/src/test/resources/testdata/LoginPage_003_Logout.xlsx
@@ -35,7 +35,8 @@
     <t>helloxwr</t>
   </si>
   <si>
-    <t>Gmcc_1234</t>
+    <t>你猜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -407,7 +408,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
